--- a/Data/EC/NIT-9008586988.xlsx
+++ b/Data/EC/NIT-9008586988.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22961F1-639F-4528-A685-B127D1A2C3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E6CDDA-BEC7-4A21-861D-2A5D6AEFEB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6F8613C-F813-4E96-9D53-69C11CAFE524}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0EFF821-9BDF-45A0-984D-3570636D5F00}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,27 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1044917176</t>
+  </si>
+  <si>
+    <t>ANTONIO LUIS BALMASEDA MORALES</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1126238377</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS JIMENEZ CONTRERAS</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
     <t>3815247</t>
   </si>
   <si>
@@ -110,18 +131,6 @@
     <t>ESTEBAN HERNANDEZ BLANCO</t>
   </si>
   <si>
-    <t>1044917176</t>
-  </si>
-  <si>
-    <t>ANTONIO LUIS BALMASEDA MORALES</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
     <t>1050956120</t>
   </si>
   <si>
@@ -138,15 +147,6 @@
   </si>
   <si>
     <t>HENRIS ENRIQUE RIVERA CERVANTES</t>
-  </si>
-  <si>
-    <t>1126238377</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS JIMENEZ CONTRERAS</t>
-  </si>
-  <si>
-    <t>1611</t>
   </si>
   <si>
     <t>3881828</t>
@@ -251,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -264,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -466,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C953AB9-DB99-E0DB-F112-438B5CF775AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75691123-E497-9865-2E4D-A63C2ED4153C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F59C8B-B90A-4C3B-B8AC-D46DC57D03C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE0C5FF-E5C2-421C-B450-E32EAD5A7FC2}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1109,16 +1109,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1132,16 +1132,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>6435</v>
       </c>
       <c r="G18" s="18">
         <v>737717</v>
@@ -1161,7 +1161,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>29509</v>
@@ -1178,19 +1178,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1201,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>29509</v>
@@ -1224,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>29509</v>
@@ -1247,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
@@ -1270,16 +1270,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
         <v>737717</v>
@@ -1293,16 +1293,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
         <v>737717</v>
@@ -1316,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
@@ -1362,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
@@ -1385,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
@@ -1408,16 +1408,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F30" s="18">
-        <v>6435</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
         <v>737717</v>
@@ -1437,7 +1437,7 @@
         <v>38</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F31" s="24">
         <v>29509</v>
